--- a/Kortright_KowCHEMSUMM.xlsx
+++ b/Kortright_KowCHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081AADE-7213-461F-A4BB-83C3E078C97B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F390D0DA-8FCD-481C-A42D-996EF7612B43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Compound</t>
   </si>
@@ -252,63 +252,6 @@
   </si>
   <si>
     <t>C33</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>C44</t>
-  </si>
-  <si>
-    <t>C45</t>
-  </si>
-  <si>
-    <t>C46</t>
-  </si>
-  <si>
-    <t>C47</t>
-  </si>
-  <si>
-    <t>C48</t>
-  </si>
-  <si>
-    <t>C49</t>
-  </si>
-  <si>
-    <t>C50</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>C52</t>
   </si>
 </sst>
 </file>
@@ -1191,11 +1134,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,25 +1283,25 @@
       </c>
       <c r="I2" s="1">
         <f>LOG(10^K2/0.41)</f>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="J2" s="1">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="1">
-        <v>4</v>
+        <v>2.2241</v>
       </c>
       <c r="L2" s="1">
         <f>K2-J2</f>
-        <v>5</v>
+        <v>1.7241</v>
       </c>
       <c r="M2" s="1">
         <f>L2+LOG(0.2)-11.91</f>
-        <v>-7.6089700043360189</v>
+        <v>-10.884870004336019</v>
       </c>
       <c r="N2" s="1">
         <f>I2</f>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="O2" s="1">
         <v>999</v>
@@ -1438,26 +1381,26 @@
         <v>1000000000</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I41" si="0">LOG(10^K3/0.41)</f>
-        <v>4.3872161432802645</v>
+        <f t="shared" ref="I3:I22" si="0">LOG(10^K3/0.41)</f>
+        <v>2.6113161432802645</v>
       </c>
       <c r="J3" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>4</v>
+        <v>2.2241</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L13" si="1">K3-J3</f>
-        <v>6</v>
+        <v>2.2241</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M13" si="2">L3+LOG(0.2)-11.91</f>
-        <v>-6.6089700043360189</v>
+        <v>-10.384870004336019</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N13" si="3">I3</f>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="O3" s="1">
         <v>999</v>
@@ -1543,25 +1486,25 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="J4" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="1">
-        <v>4</v>
+        <v>2.2241</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3.2241</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="2"/>
-        <v>-5.6089700043360189</v>
+        <v>-9.3848700043360189</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="O4" s="1">
         <v>999</v>
@@ -1647,25 +1590,25 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="J5" s="1">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="K5" s="1">
-        <v>4</v>
+        <v>2.2241</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4.2241</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>-4.6089700043360189</v>
+        <v>-8.3848700043360189</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="O5" s="1">
         <v>999</v>
@@ -1748,25 +1691,25 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="J6" s="1">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="K6" s="1">
-        <v>4</v>
+        <v>2.2241</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5.2241</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>-3.6089700043360189</v>
+        <v>-7.3848700043360189</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>2.6113161432802645</v>
       </c>
       <c r="O6" s="1">
         <v>999</v>
@@ -1849,25 +1792,25 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="2"/>
-        <v>-8.3589700043360189</v>
+        <v>-8.6089700043360189</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="O7" s="1">
         <v>999</v>
@@ -1950,25 +1893,25 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="J8" s="1">
         <v>-1</v>
       </c>
       <c r="K8" s="1">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="2"/>
-        <v>-7.3589700043360189</v>
+        <v>-7.6089700043360189</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="O8" s="1">
         <v>999</v>
@@ -2051,25 +1994,25 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="J9" s="1">
         <v>-2</v>
       </c>
       <c r="K9" s="1">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="2"/>
-        <v>-6.3589700043360189</v>
+        <v>-6.6089700043360189</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="O9" s="1">
         <v>999</v>
@@ -2145,25 +2088,25 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="J10" s="1">
         <v>-3</v>
       </c>
       <c r="K10" s="1">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="2"/>
-        <v>-5.3589700043360189</v>
+        <v>-5.6089700043360189</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="O10" s="1">
         <v>999</v>
@@ -2239,25 +2182,25 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="J11" s="1">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="K11" s="1">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>-3.3589700043360189</v>
+        <v>-4.6089700043360189</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>4.6372161432802645</v>
+        <v>4.3872161432802645</v>
       </c>
       <c r="O11" s="1">
         <v>999</v>
@@ -2333,25 +2276,25 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>-8.1089700043360189</v>
+        <v>-9.1089700043360189</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="O12" s="1">
         <v>999</v>
@@ -2427,25 +2370,25 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="J13" s="1">
         <v>-1</v>
       </c>
       <c r="K13" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="2"/>
-        <v>-7.1089700043360189</v>
+        <v>-8.1089700043360189</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="O13" s="1">
         <v>999</v>
@@ -2521,25 +2464,25 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="J14" s="1">
         <v>-2</v>
       </c>
       <c r="K14" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ref="L14:L19" si="4">K14-J14</f>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ref="M14:M19" si="5">L14+LOG(0.2)-11.91</f>
-        <v>-6.1089700043360189</v>
+        <v>-7.1089700043360189</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ref="N14:N19" si="6">I14</f>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="O14" s="1">
         <v>999</v>
@@ -2615,25 +2558,25 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="J15" s="1">
         <v>-3</v>
       </c>
       <c r="K15" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>-5.1089700043360189</v>
+        <v>-6.1089700043360189</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="6"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="O15" s="1">
         <v>999</v>
@@ -2709,25 +2652,25 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="J16" s="1">
         <v>-5</v>
       </c>
       <c r="K16" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="5"/>
-        <v>-3.1089700043360189</v>
+        <v>-4.1089700043360189</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="6"/>
-        <v>4.8872161432802654</v>
+        <v>3.8872161432802645</v>
       </c>
       <c r="O16" s="1">
         <v>999</v>
@@ -2803,25 +2746,25 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>5.1372161432802645</v>
+        <v>2.6072161432802647</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="K17" s="1">
-        <v>4.75</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="4"/>
-        <v>4.75</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="5"/>
-        <v>-7.8589700043360189</v>
+        <v>-10.117970004336019</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="6"/>
-        <v>5.1372161432802645</v>
+        <v>2.6072161432802647</v>
       </c>
       <c r="O17" s="1">
         <v>999</v>
@@ -2897,25 +2840,25 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>5.1372161432802645</v>
+        <v>2.887216143280265</v>
       </c>
       <c r="J18" s="1">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="K18" s="1">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="4"/>
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="5"/>
-        <v>-6.8589700043360189</v>
+        <v>-9.6089700043360189</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="6"/>
-        <v>5.1372161432802645</v>
+        <v>2.887216143280265</v>
       </c>
       <c r="O18" s="1">
         <v>999</v>
@@ -2991,25 +2934,25 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" si="0"/>
-        <v>5.1372161432802645</v>
+        <v>2.887216143280265</v>
       </c>
       <c r="J19" s="1">
-        <v>-2</v>
+        <v>-0.27</v>
       </c>
       <c r="K19" s="1">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="4"/>
-        <v>6.75</v>
+        <v>2.77</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="5"/>
-        <v>-5.8589700043360189</v>
+        <v>-9.8389700043360193</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="6"/>
-        <v>5.1372161432802645</v>
+        <v>2.887216143280265</v>
       </c>
       <c r="O19" s="1">
         <v>999</v>
@@ -3085,25 +3028,25 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>
-        <v>5.1372161432802645</v>
+        <v>2.6072161432802647</v>
       </c>
       <c r="J20" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>4.75</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L41" si="7">K20-J20</f>
-        <v>7.75</v>
+        <f t="shared" ref="L20:L22" si="7">K20-J20</f>
+        <v>1.2200000000000002</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" ref="M20:M41" si="8">L20+LOG(0.2)-11.91</f>
-        <v>-4.8589700043360189</v>
+        <f t="shared" ref="M20:M22" si="8">L20+LOG(0.2)-11.91</f>
+        <v>-11.388970004336018</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:N41" si="9">I20</f>
-        <v>5.1372161432802645</v>
+        <f t="shared" ref="N20:N22" si="9">I20</f>
+        <v>2.6072161432802647</v>
       </c>
       <c r="O20" s="1">
         <v>999</v>
@@ -3179,25 +3122,25 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="0"/>
-        <v>5.1372161432802645</v>
+        <v>2.6072161432802647</v>
       </c>
       <c r="J21" s="1">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="1">
-        <v>4.75</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="7"/>
-        <v>9.75</v>
+        <v>3.22</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="8"/>
-        <v>-2.8589700043360189</v>
+        <v>-9.3889700043360182</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="9"/>
-        <v>5.1372161432802645</v>
+        <v>2.6072161432802647</v>
       </c>
       <c r="O21" s="1">
         <v>999</v>
@@ -3273,25 +3216,25 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>5.3872161432802645</v>
+        <v>2.6072161432802647</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="K22" s="1">
-        <v>5</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2.97</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="8"/>
-        <v>-7.6089700043360189</v>
+        <v>-9.6389700043360182</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="9"/>
-        <v>5.3872161432802645</v>
+        <v>2.6072161432802647</v>
       </c>
       <c r="O22" s="1">
         <v>999</v>
@@ -3337,1792 +3280,6 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1">
-        <v>325</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>5</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.6089700043360189</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="O23" s="1">
-        <v>999</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="1">
-        <v>325</v>
-      </c>
-      <c r="C24" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-2</v>
-      </c>
-      <c r="K24" s="1">
-        <v>5</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="8"/>
-        <v>-5.6089700043360189</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="O24" s="1">
-        <v>999</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="1">
-        <v>325</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-3</v>
-      </c>
-      <c r="K25" s="1">
-        <v>5</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.6089700043360189</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="O25" s="1">
-        <v>999</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="1">
-        <v>325</v>
-      </c>
-      <c r="C26" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-5</v>
-      </c>
-      <c r="K26" s="1">
-        <v>5</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.6089700043360189</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3872161432802645</v>
-      </c>
-      <c r="O26" s="1">
-        <v>999</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="1">
-        <v>325</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="7"/>
-        <v>5.25</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.3589700043360189</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="9"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="O27" s="1">
-        <v>999</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1">
-        <v>325</v>
-      </c>
-      <c r="C28" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="7"/>
-        <v>6.25</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.3589700043360189</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" si="9"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="O28" s="1">
-        <v>999</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="1">
-        <v>325</v>
-      </c>
-      <c r="C29" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-2</v>
-      </c>
-      <c r="K29" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="7"/>
-        <v>7.25</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="8"/>
-        <v>-5.3589700043360189</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="9"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="O29" s="1">
-        <v>999</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1">
-        <v>325</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-3</v>
-      </c>
-      <c r="K30" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="7"/>
-        <v>8.25</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.3589700043360189</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" si="9"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="O30" s="1">
-        <v>999</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="1">
-        <v>325</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-5</v>
-      </c>
-      <c r="K31" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="7"/>
-        <v>10.25</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.3589700043360189</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="9"/>
-        <v>5.6372161432802654</v>
-      </c>
-      <c r="O31" s="1">
-        <v>999</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1">
-        <v>325</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="7"/>
-        <v>5.5</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.1089700043360189</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="9"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="O32" s="1">
-        <v>999</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="1">
-        <v>325</v>
-      </c>
-      <c r="C33" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="7"/>
-        <v>6.5</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.1089700043360189</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="9"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="O33" s="1">
-        <v>999</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1">
-        <v>325</v>
-      </c>
-      <c r="C34" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-2</v>
-      </c>
-      <c r="K34" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="7"/>
-        <v>7.5</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="8"/>
-        <v>-5.1089700043360189</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="9"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="O34" s="1">
-        <v>999</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="1">
-        <v>325</v>
-      </c>
-      <c r="C35" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-3</v>
-      </c>
-      <c r="K35" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="7"/>
-        <v>8.5</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.1089700043360189</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="9"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="O35" s="1">
-        <v>999</v>
-      </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="1">
-        <v>325</v>
-      </c>
-      <c r="C36" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="0"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="J36" s="1">
-        <v>-5</v>
-      </c>
-      <c r="K36" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.1089700043360189</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" si="9"/>
-        <v>5.8872161432802645</v>
-      </c>
-      <c r="O36" s="1">
-        <v>999</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="1">
-        <v>325</v>
-      </c>
-      <c r="C37" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <v>6</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="M37" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.6089700043360189</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="9"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="O37" s="1">
-        <v>999</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="1">
-        <v>325</v>
-      </c>
-      <c r="C38" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>6</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.6089700043360189</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="9"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="O38" s="1">
-        <v>999</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="1">
-        <v>325</v>
-      </c>
-      <c r="C39" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="J39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>6</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="8"/>
-        <v>-5.6089700043360189</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="9"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="O39" s="1">
-        <v>999</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1">
-        <v>325</v>
-      </c>
-      <c r="C40" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="J40" s="1">
-        <v>-2</v>
-      </c>
-      <c r="K40" s="1">
-        <v>6</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.6089700043360189</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="9"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="O40" s="1">
-        <v>999</v>
-      </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0</v>
-      </c>
-      <c r="U40" s="1">
-        <v>0</v>
-      </c>
-      <c r="V40" s="1">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>2.3714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1">
-        <v>325</v>
-      </c>
-      <c r="C41" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="J41" s="1">
-        <v>-3</v>
-      </c>
-      <c r="K41" s="1">
-        <v>6</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="M41" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.6089700043360189</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="9"/>
-        <v>6.3872161432802645</v>
-      </c>
-      <c r="O41" s="1">
-        <v>999</v>
-      </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD41" s="1">
         <v>2.3714</v>
       </c>
     </row>

--- a/Kortright_KowCHEMSUMM.xlsx
+++ b/Kortright_KowCHEMSUMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F390D0DA-8FCD-481C-A42D-996EF7612B43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23830921-636F-41D1-98E0-0D1D17FA27AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Compound</t>
   </si>
@@ -191,12 +191,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
     <t>C15</t>
   </si>
   <si>
@@ -224,34 +218,10 @@
     <t>C23</t>
   </si>
   <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C33</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -1136,13 +1106,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1258,10 +1229,10 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
-        <v>325</v>
+        <v>119.37</v>
       </c>
       <c r="C2" s="2">
         <v>8.2613429233713053E-6</v>
@@ -1283,25 +1254,25 @@
       </c>
       <c r="I2" s="1">
         <f>LOG(10^K2/0.41)</f>
-        <v>2.6113161432802645</v>
+        <v>1.9872161432802649</v>
       </c>
       <c r="J2" s="1">
-        <v>0.5</v>
+        <v>-0.82</v>
       </c>
       <c r="K2" s="1">
-        <v>2.2241</v>
+        <v>1.6</v>
       </c>
       <c r="L2" s="1">
         <f>K2-J2</f>
-        <v>1.7241</v>
+        <v>2.42</v>
       </c>
       <c r="M2" s="1">
         <f>L2+LOG(0.2)-11.91</f>
-        <v>-10.884870004336019</v>
+        <v>-10.188970004336019</v>
       </c>
       <c r="N2" s="1">
         <f>I2</f>
-        <v>2.6113161432802645</v>
+        <v>1.9872161432802649</v>
       </c>
       <c r="O2" s="1">
         <v>999</v>
@@ -1357,10 +1328,10 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1">
-        <v>325</v>
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>128.16999999999999</v>
       </c>
       <c r="C3" s="2">
         <v>8.2613429233713053E-6</v>
@@ -1382,25 +1353,25 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I22" si="0">LOG(10^K3/0.41)</f>
-        <v>2.6113161432802645</v>
+        <v>3.3472161432802645</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
       <c r="K3" s="1">
-        <v>2.2241</v>
+        <v>2.96</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L13" si="1">K3-J3</f>
-        <v>2.2241</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M13" si="2">L3+LOG(0.2)-11.91</f>
-        <v>-10.384870004336019</v>
+        <v>-7.9189700043360194</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N13" si="3">I3</f>
-        <v>2.6113161432802645</v>
+        <v>3.3472161432802645</v>
       </c>
       <c r="O3" s="1">
         <v>999</v>
@@ -1461,7 +1432,7 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>325</v>
@@ -1485,26 +1456,26 @@
         <v>1000000000</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6113161432802645</v>
+        <f>LOG(10^K4/0.41)</f>
+        <v>1.9872161432802649</v>
       </c>
       <c r="J4" s="1">
-        <v>-1</v>
+        <v>-0.82</v>
       </c>
       <c r="K4" s="1">
-        <v>2.2241</v>
+        <v>1.6</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="1"/>
-        <v>3.2241</v>
+        <f>K4-J4</f>
+        <v>2.42</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="2"/>
-        <v>-9.3848700043360189</v>
+        <v>-10.188970004336019</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="3"/>
-        <v>2.6113161432802645</v>
+        <v>1.9872161432802649</v>
       </c>
       <c r="O4" s="1">
         <v>999</v>
@@ -1565,7 +1536,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>325</v>
@@ -1590,25 +1561,25 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>2.6113161432802645</v>
+        <v>1.9872161432802649</v>
       </c>
       <c r="J5" s="1">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>2.2241</v>
+        <v>1.6</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>4.2241</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>-8.3848700043360189</v>
+        <v>-12.008970004336019</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>2.6113161432802645</v>
+        <v>1.9872161432802649</v>
       </c>
       <c r="O5" s="1">
         <v>999</v>
@@ -1666,7 +1637,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>325</v>
@@ -1691,25 +1662,25 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>2.6113161432802645</v>
+        <v>1.9872161432802649</v>
       </c>
       <c r="J6" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2.2241</v>
+        <v>1.6</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>5.2241</v>
+        <v>1.6</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>-7.3848700043360189</v>
+        <v>-11.008970004336019</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>2.6113161432802645</v>
+        <v>1.9872161432802649</v>
       </c>
       <c r="O6" s="1">
         <v>999</v>
@@ -1767,7 +1738,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>325</v>
@@ -1792,25 +1763,25 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>1.3872161432802645</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="2"/>
-        <v>-8.6089700043360189</v>
+        <v>-11.608970004336019</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>1.3872161432802645</v>
       </c>
       <c r="O7" s="1">
         <v>999</v>
@@ -1868,7 +1839,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>325</v>
@@ -1893,25 +1864,25 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>1.6372161432802648</v>
       </c>
       <c r="J8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="2"/>
-        <v>-7.6089700043360189</v>
+        <v>-11.358970004336019</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>1.6372161432802648</v>
       </c>
       <c r="O8" s="1">
         <v>999</v>
@@ -1969,7 +1940,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>325</v>
@@ -1994,25 +1965,25 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>2.1372161432802645</v>
       </c>
       <c r="J9" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="2"/>
-        <v>-6.6089700043360189</v>
+        <v>-10.858970004336019</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>2.1372161432802645</v>
       </c>
       <c r="O9" s="1">
         <v>999</v>
@@ -2063,7 +2034,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>325</v>
@@ -2088,25 +2059,25 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>1.3872161432802645</v>
       </c>
       <c r="J10" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="2"/>
-        <v>-5.6089700043360189</v>
+        <v>-12.608970004336019</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>1.3872161432802645</v>
       </c>
       <c r="O10" s="1">
         <v>999</v>
@@ -2157,7 +2128,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
         <v>325</v>
@@ -2182,25 +2153,25 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>4.3872161432802645</v>
+        <v>1.8872161432802648</v>
       </c>
       <c r="J11" s="1">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>-4.6089700043360189</v>
+        <v>-12.108970004336019</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>4.3872161432802645</v>
+        <v>1.8872161432802648</v>
       </c>
       <c r="O11" s="1">
         <v>999</v>
@@ -2251,7 +2222,7 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>325</v>
@@ -2276,25 +2247,25 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>3.8872161432802645</v>
+        <v>2.3872161432802645</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>-9.1089700043360189</v>
+        <v>-11.608970004336019</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>3.8872161432802645</v>
+        <v>2.3872161432802645</v>
       </c>
       <c r="O12" s="1">
         <v>999</v>
@@ -2344,944 +2315,321 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="1">
-        <v>325</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="2"/>
-        <v>-8.1089700043360189</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="3"/>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="O13" s="1">
-        <v>999</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1">
-        <v>325</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" ref="L14:L19" si="4">K14-J14</f>
-        <v>5.5</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" ref="M14:M19" si="5">L14+LOG(0.2)-11.91</f>
-        <v>-7.1089700043360189</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" ref="N14:N19" si="6">I14</f>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="O14" s="1">
-        <v>999</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="1">
-        <v>325</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-3</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="5"/>
-        <v>-6.1089700043360189</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="6"/>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="O15" s="1">
-        <v>999</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1">
-        <v>325</v>
-      </c>
-      <c r="C16" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-5</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="4"/>
-        <v>8.5</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.1089700043360189</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="6"/>
-        <v>3.8872161432802645</v>
-      </c>
-      <c r="O16" s="1">
-        <v>999</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1">
-        <v>325</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-0.27100000000000002</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4910000000000001</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.117970004336019</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="6"/>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="O17" s="1">
-        <v>999</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1">
-        <v>325</v>
-      </c>
-      <c r="C18" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>2.887216143280265</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.6089700043360189</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="6"/>
-        <v>2.887216143280265</v>
-      </c>
-      <c r="O18" s="1">
-        <v>999</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1">
-        <v>325</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>2.887216143280265</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-0.27</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="4"/>
-        <v>2.77</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.8389700043360193</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="6"/>
-        <v>2.887216143280265</v>
-      </c>
-      <c r="O19" s="1">
-        <v>999</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1">
-        <v>325</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" ref="L20:L22" si="7">K20-J20</f>
-        <v>1.2200000000000002</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" ref="M20:M22" si="8">L20+LOG(0.2)-11.91</f>
-        <v>-11.388970004336018</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" ref="N20:N22" si="9">I20</f>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="O20" s="1">
-        <v>999</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1">
-        <v>325</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="7"/>
-        <v>3.22</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="8"/>
-        <v>-9.3889700043360182</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="9"/>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="O21" s="1">
-        <v>999</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1">
-        <v>325</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8.2613429233713053E-6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1E-99</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.97</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="8"/>
-        <v>-9.6389700043360182</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="9"/>
-        <v>2.6072161432802647</v>
-      </c>
-      <c r="O22" s="1">
-        <v>999</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>11.259</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>2.3714</v>
-      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/Kortright_KowCHEMSUMM.xlsx
+++ b/Kortright_KowCHEMSUMM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23830921-636F-41D1-98E0-0D1D17FA27AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BA685-6DA8-455D-B4FE-F2022B162DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
+    <sheet name="napchlo" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +37,7 @@
     <author>tc={398474E0-FBD6-463A-9785-CE396103067D}</author>
     <author>tc={0176E549-CF14-46C2-8538-6AE6C2A7F795}</author>
     <author>tc={8180B5E7-7869-45E4-89CD-983333B7B908}</author>
+    <author>tc={70A64DF9-80C8-4463-8BE5-C4DFBB38A0EE}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{398474E0-FBD6-463A-9785-CE396103067D}">
@@ -64,12 +66,58 @@
     From MUM = Kow</t>
       </text>
     </comment>
+    <comment ref="K20" authorId="3" shapeId="0" xr:uid="{70A64DF9-80C8-4463-8BE5-C4DFBB38A0EE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =Log(71) from Rhodes-Dicker</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B313FA15-AD4C-48D5-B55A-C03DA2AC5D8A}</author>
+    <author>tc={531A4C6B-D46C-41CB-A54F-0F5F958B71FF}</author>
+    <author>tc={F8CC3F01-2D58-4851-BC3D-427E443C6FB8}</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B313FA15-AD4C-48D5-B55A-C03DA2AC5D8A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paraiba, L. C., Bru, R. and Carrasco, J. M.: Level IV Fugacity model depending on temperature by a periodic control system, Ecol. Modell., 147(3), 221–232, doi:10.1016/S0304-3800(01)00421-5, 2002.
+Reply:
+    water viscosity = 1.0791, using Mcgowan's molar volume</t>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{531A4C6B-D46C-41CB-A54F-0F5F958B71FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Harner-Bidleman Log Kqa = (Koa+logfom-11.91), using fom =0.2</t>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="2" shapeId="0" xr:uid="{F8CC3F01-2D58-4851-BC3D-427E443C6FB8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    From MUM = Kow</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>Compound</t>
   </si>
@@ -176,9 +224,6 @@
     <t>CAS</t>
   </si>
   <si>
-    <t>95-14-7</t>
-  </si>
-  <si>
     <t>LogKqa</t>
   </si>
   <si>
@@ -212,23 +257,95 @@
     <t>C21</t>
   </si>
   <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C23</t>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Benzotriazole</t>
+  </si>
+  <si>
+    <t>Rhodamine</t>
+  </si>
+  <si>
+    <t>TCEP</t>
+  </si>
+  <si>
+    <t>TCiPP</t>
+  </si>
+  <si>
+    <t>TPhP</t>
+  </si>
+  <si>
+    <t>EHDPP</t>
+  </si>
+  <si>
+    <t>Naphthalene</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>FAV, as noted</t>
+  </si>
+  <si>
+    <t>As noted</t>
+  </si>
+  <si>
+    <t>LSER Dataset 2017</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C=CC=CC2=C1</t>
+  </si>
+  <si>
+    <t>91-20-3</t>
+  </si>
+  <si>
+    <t>C(Cl)(Cl)Cl</t>
+  </si>
+  <si>
+    <t>67-66-3</t>
+  </si>
+  <si>
+    <t>EPA Calc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +490,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -717,13 +847,20 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -786,6 +923,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Tim Rodgers" id="{3921DA96-6704-4CCA-927E-27B8617908FF}" userId="Tim Rodgers" providerId="None"/>
+  <person displayName="Tim Rodgers" id="{0D00CE97-DFD1-40A7-A997-5D34584E3C16}" userId="403ae09839abb1f6" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -1098,17 +1236,37 @@
   <threadedComment ref="N1" dT="2021-03-11T14:55:23.20" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{8180B5E7-7869-45E4-89CD-983333B7B908}">
     <text>From MUM = Kow</text>
   </threadedComment>
+  <threadedComment ref="K20" dT="2019-11-26T16:47:38.43" personId="{0D00CE97-DFD1-40A7-A997-5D34584E3C16}" id="{70A64DF9-80C8-4463-8BE5-C4DFBB38A0EE}">
+    <text>=Log(71) from Rhodes-Dicker</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C4" dT="2020-11-09T15:48:14.35" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{B313FA15-AD4C-48D5-B55A-C03DA2AC5D8A}">
+    <text>Paraiba, L. C., Bru, R. and Carrasco, J. M.: Level IV Fugacity model depending on temperature by a periodic control system, Ecol. Modell., 147(3), 221–232, doi:10.1016/S0304-3800(01)00421-5, 2002.</text>
+  </threadedComment>
+  <threadedComment ref="C4" dT="2020-11-09T15:57:14.30" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{A719931D-E509-4A54-BA4D-76A5D753728F}" parentId="{B313FA15-AD4C-48D5-B55A-C03DA2AC5D8A}">
+    <text>water viscosity = 1.0791, using Mcgowan's molar volume</text>
+  </threadedComment>
+  <threadedComment ref="M4" dT="2021-03-11T14:38:38.70" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{531A4C6B-D46C-41CB-A54F-0F5F958B71FF}">
+    <text>Harner-Bidleman Log Kqa = (Koa+logfom-11.91), using fom =0.2</text>
+  </threadedComment>
+  <threadedComment ref="N4" dT="2021-03-11T14:55:23.20" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{F8CC3F01-2D58-4851-BC3D-427E443C6FB8}">
+    <text>From MUM = Kow</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,13 +1322,13 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
       </c>
       <c r="O1" t="s">
         <v>23</v>
@@ -1215,7 +1373,7 @@
         <v>15</v>
       </c>
       <c r="AC1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD1" t="s">
         <v>16</v>
@@ -1229,16 +1387,16 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
-        <v>119.37</v>
+        <v>325</v>
       </c>
       <c r="C2" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D2" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E2" s="2">
         <v>1E-99</v>
@@ -1254,25 +1412,25 @@
       </c>
       <c r="I2" s="1">
         <f>LOG(10^K2/0.41)</f>
-        <v>1.9872161432802649</v>
+        <v>2.887216143280265</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.82</v>
+        <v>-5</v>
       </c>
       <c r="K2" s="1">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L2" s="1">
         <f>K2-J2</f>
-        <v>2.42</v>
+        <v>7.5</v>
       </c>
       <c r="M2" s="1">
         <f>L2+LOG(0.2)-11.91</f>
-        <v>-10.188970004336019</v>
+        <v>-5.1089700043360189</v>
       </c>
       <c r="N2" s="1">
         <f>I2</f>
-        <v>1.9872161432802649</v>
+        <v>2.887216143280265</v>
       </c>
       <c r="O2" s="1">
         <v>999</v>
@@ -1306,19 +1464,19 @@
         <v>2.616143551903963E-10</v>
       </c>
       <c r="Z2" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD2" s="1">
-        <v>2.3714</v>
+        <v>2.1833</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AJ2" s="5"/>
@@ -1328,16 +1486,16 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>128.16999999999999</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="1">
+        <v>325</v>
       </c>
       <c r="C3" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D3" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E3" s="2">
         <v>1E-99</v>
@@ -1352,26 +1510,26 @@
         <v>1000000000</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I22" si="0">LOG(10^K3/0.41)</f>
-        <v>3.3472161432802645</v>
+        <f>LOG(10^K3/0.41)</f>
+        <v>3.3872161432802645</v>
       </c>
       <c r="J3" s="1">
-        <v>-1.73</v>
+        <v>-5</v>
       </c>
       <c r="K3" s="1">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L13" si="1">K3-J3</f>
-        <v>4.6899999999999995</v>
+        <f>K3-J3</f>
+        <v>8</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M13" si="2">L3+LOG(0.2)-11.91</f>
-        <v>-7.9189700043360194</v>
+        <f t="shared" ref="M3:M9" si="0">L3+LOG(0.2)-11.91</f>
+        <v>-4.6089700043360189</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N13" si="3">I3</f>
-        <v>3.3472161432802645</v>
+        <f>I3</f>
+        <v>3.3872161432802645</v>
       </c>
       <c r="O3" s="1">
         <v>999</v>
@@ -1390,40 +1548,40 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1.9723618090452261E-13</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>7.3099999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD3" s="1">
-        <v>2.3714</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>29</v>
+        <v>2.1833</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>30</v>
       </c>
       <c r="AF3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
@@ -1432,16 +1590,16 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1">
         <v>325</v>
       </c>
       <c r="C4" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D4" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E4" s="2">
         <v>1E-99</v>
@@ -1456,26 +1614,26 @@
         <v>1000000000</v>
       </c>
       <c r="I4" s="1">
-        <f>LOG(10^K4/0.41)</f>
-        <v>1.9872161432802649</v>
+        <f t="shared" ref="I4:I9" si="1">LOG(10^K4/0.41)</f>
+        <v>3.8872161432802645</v>
       </c>
       <c r="J4" s="1">
-        <v>-0.82</v>
+        <v>-5</v>
       </c>
       <c r="K4" s="1">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="L4" s="1">
         <f>K4-J4</f>
-        <v>2.42</v>
+        <v>8.5</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.188970004336019</v>
+        <f t="shared" si="0"/>
+        <v>-4.1089700043360189</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9872161432802649</v>
+        <f>I4</f>
+        <v>3.8872161432802645</v>
       </c>
       <c r="O4" s="1">
         <v>999</v>
@@ -1509,25 +1667,22 @@
         <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD4" s="1">
-        <v>2.3714</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>31</v>
+        <v>2.1833</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
@@ -1536,16 +1691,16 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>325</v>
       </c>
       <c r="C5" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D5" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E5" s="2">
         <v>1E-99</v>
@@ -1560,26 +1715,26 @@
         <v>1000000000</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3872161432802645</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <f>K5-J5</f>
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>1.9872161432802649</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="2"/>
-        <v>-12.008970004336019</v>
+        <v>-2.6089700043360189</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9872161432802649</v>
+        <f>I5</f>
+        <v>5.3872161432802645</v>
       </c>
       <c r="O5" s="1">
         <v>999</v>
@@ -1613,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD5" s="1">
-        <v>2.3714</v>
+        <v>2.1833</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
@@ -1637,16 +1792,16 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>325</v>
       </c>
       <c r="C6" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D6" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E6" s="2">
         <v>1E-99</v>
@@ -1661,26 +1816,26 @@
         <v>1000000000</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8872161432802645</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="L6" s="1">
+        <f>K6-J6</f>
+        <v>10.5</v>
+      </c>
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>1.9872161432802649</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>-11.008970004336019</v>
+        <v>-2.1089700043360189</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9872161432802649</v>
+        <f>I6</f>
+        <v>5.8872161432802645</v>
       </c>
       <c r="O6" s="1">
         <v>999</v>
@@ -1714,40 +1869,33 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD6" s="1">
-        <v>2.3714</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
+        <v>2.1833</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>325</v>
       </c>
       <c r="C7" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D7" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E7" s="2">
         <v>1E-99</v>
@@ -1762,26 +1910,26 @@
         <v>1000000000</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3872161432802645</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <f>K7-J7</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
-        <v>1.3872161432802645</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="2"/>
-        <v>-11.608970004336019</v>
+        <v>-10.608970004336019</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3872161432802645</v>
+        <f>I7</f>
+        <v>2.3872161432802645</v>
       </c>
       <c r="O7" s="1">
         <v>999</v>
@@ -1815,40 +1963,33 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD7" s="1">
-        <v>2.3714</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
+        <v>2.1833</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>325</v>
       </c>
       <c r="C8" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D8" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E8" s="2">
         <v>1E-99</v>
@@ -1863,26 +2004,26 @@
         <v>1000000000</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.887216143280265</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L8" s="1">
+        <f>K8-J8</f>
+        <v>2.5</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>1.6372161432802648</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="2"/>
-        <v>-11.358970004336019</v>
+        <v>-10.108970004336019</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="3"/>
-        <v>1.6372161432802648</v>
+        <f>I8</f>
+        <v>2.887216143280265</v>
       </c>
       <c r="O8" s="1">
         <v>999</v>
@@ -1916,40 +2057,33 @@
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD8" s="1">
-        <v>2.3714</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
+        <v>2.1833</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>325</v>
       </c>
       <c r="C9" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D9" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E9" s="2">
         <v>1E-99</v>
@@ -1964,26 +2098,26 @@
         <v>1000000000</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3872161432802645</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <f>K9-J9</f>
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
-        <v>2.1372161432802645</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.858970004336019</v>
+        <v>-9.6089700043360189</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1372161432802645</v>
+        <f>I9</f>
+        <v>3.3872161432802645</v>
       </c>
       <c r="O9" s="1">
         <v>999</v>
@@ -2017,33 +2151,33 @@
         <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD9" s="1">
-        <v>2.3714</v>
+        <v>2.1833</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1">
         <v>325</v>
       </c>
       <c r="C10" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D10" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E10" s="2">
         <v>1E-99</v>
@@ -2058,26 +2192,26 @@
         <v>1000000000</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3872161432802645</v>
+        <f t="shared" ref="I10:I18" si="2">LOG(10^K10/0.41)</f>
+        <v>3.8872161432802645</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>K10-J10</f>
+        <v>3.5</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
-        <v>-12.608970004336019</v>
+        <f t="shared" ref="M10:M18" si="3">L10+LOG(0.2)-11.91</f>
+        <v>-9.1089700043360189</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3872161432802645</v>
+        <f>I10</f>
+        <v>3.8872161432802645</v>
       </c>
       <c r="O10" s="1">
         <v>999</v>
@@ -2111,33 +2245,33 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD10" s="1">
-        <v>2.3714</v>
+        <v>2.1833</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>325</v>
       </c>
       <c r="C11" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D11" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E11" s="2">
         <v>1E-99</v>
@@ -2152,26 +2286,26 @@
         <v>1000000000</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8872161432802648</v>
+        <f t="shared" si="2"/>
+        <v>4.3872161432802645</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>K11-J11</f>
+        <v>4</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
-        <v>-12.108970004336019</v>
+        <f t="shared" si="3"/>
+        <v>-8.6089700043360189</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="3"/>
-        <v>1.8872161432802648</v>
+        <f>I11</f>
+        <v>4.3872161432802645</v>
       </c>
       <c r="O11" s="1">
         <v>999</v>
@@ -2205,33 +2339,33 @@
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD11" s="1">
-        <v>2.3714</v>
+        <v>2.1833</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>325</v>
       </c>
       <c r="C12" s="2">
-        <v>8.2613429233713053E-6</v>
+        <v>1.4517E-6</v>
       </c>
       <c r="D12" s="3">
-        <v>1.2887999999999998E-2</v>
+        <v>1.5236999999999999E-2</v>
       </c>
       <c r="E12" s="2">
         <v>1E-99</v>
@@ -2246,26 +2380,26 @@
         <v>1000000000</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3872161432802645</v>
+        <f t="shared" si="2"/>
+        <v>4.8872161432802654</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>K12-J12</f>
+        <v>4.5</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
-        <v>-11.608970004336019</v>
+        <f t="shared" si="3"/>
+        <v>-8.1089700043360189</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3872161432802645</v>
+        <f>I12</f>
+        <v>4.8872161432802654</v>
       </c>
       <c r="O12" s="1">
         <v>999</v>
@@ -2299,341 +2433,1612 @@
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>11.259</v>
+        <v>8.7040000000000006</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.66</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AD12" s="1">
-        <v>2.3714</v>
+        <v>2.1833</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>325</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.4517E-6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.5236999999999999E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1E-99</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3872161432802645</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1">
+        <f>K13-J13</f>
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.6089700043360189</v>
+      </c>
+      <c r="N13" s="1">
+        <f>I13</f>
+        <v>5.3872161432802645</v>
+      </c>
+      <c r="O13" s="1">
+        <v>999</v>
+      </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>2.1833</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1">
+        <v>325</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.4517E-6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.5236999999999999E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1E-99</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8872161432802645</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="L14" s="1">
+        <f>K14-J14</f>
+        <v>5.5</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.1089700043360189</v>
+      </c>
+      <c r="N14" s="1">
+        <f>I14</f>
+        <v>5.8872161432802645</v>
+      </c>
+      <c r="O14" s="1">
+        <v>999</v>
+      </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>2.1833</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1">
+        <v>325</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.4517E-6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.5236999999999999E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1E-99</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8872161432802648</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-J15</f>
+        <v>2.5</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>-10.108970004336019</v>
+      </c>
+      <c r="N15" s="1">
+        <f>I15</f>
+        <v>1.8872161432802648</v>
+      </c>
+      <c r="O15" s="1">
+        <v>999</v>
+      </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>2.1833</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1">
+        <v>325</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.4517E-6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.5236999999999999E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1E-99</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.887216143280265</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L16" s="1">
+        <f>K16-J16</f>
+        <v>3.5</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.1089700043360189</v>
+      </c>
+      <c r="N16" s="1">
+        <f>I16</f>
+        <v>2.887216143280265</v>
+      </c>
+      <c r="O16" s="1">
+        <v>999</v>
+      </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>2.1833</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>325</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.4517E-6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.5236999999999999E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1E-99</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8872161432802645</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L17" s="1">
+        <f>K17-J17</f>
+        <v>4.5</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.1089700043360189</v>
+      </c>
+      <c r="N17" s="1">
+        <f>I17</f>
+        <v>3.8872161432802645</v>
+      </c>
+      <c r="O17" s="1">
+        <v>999</v>
+      </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2.1833</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1">
+        <v>325</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.4517E-6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.5236999999999999E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1E-99</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8872161432802654</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L18" s="1">
+        <f>K18-J18</f>
+        <v>5.5</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.1089700043360189</v>
+      </c>
+      <c r="N18" s="1">
+        <f>I18</f>
+        <v>4.8872161432802654</v>
+      </c>
+      <c r="O18" s="1">
+        <v>999</v>
+      </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>2.1833</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1">
+        <v>325</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.4517E-6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.5236999999999999E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1E-99</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1000000000</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19" si="4">LOG(10^K19/0.41)</f>
+        <v>5.8872161432802645</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="L19" s="1">
+        <f>K19-J19</f>
+        <v>6.5</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" ref="M19" si="5">L19+LOG(0.2)-11.91</f>
+        <v>-6.1089700043360189</v>
+      </c>
+      <c r="N19" s="1">
+        <f>I19</f>
+        <v>5.8872161432802645</v>
+      </c>
+      <c r="O19" s="1">
+        <v>999</v>
+      </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>2.1833</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="6">
+        <v>119.127</v>
+      </c>
+      <c r="C20" s="2">
+        <f>(0.000000074*(2.6*B20)^0.5*(273.15+17)/(1.0791*(AD20*100)^0.6))*(3600/100^2)</f>
+        <v>8.6819708262146042E-6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F20" s="7">
+        <v>360</v>
+      </c>
+      <c r="G20" s="7">
+        <v>720</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-7.1020259999999986</v>
+      </c>
+      <c r="K20" s="1">
+        <f>LOG(71)</f>
+        <v>1.8512583487190752</v>
+      </c>
+      <c r="L20" s="1">
+        <f>K20-J20</f>
+        <v>8.9532843487190732</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20:M25" si="6">L20+LOG(0.2)-11.91</f>
+        <v>-3.6556856556169457</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N25" si="7">I20</f>
+        <v>1.2300000000000002</v>
+      </c>
+      <c r="O20" s="1">
+        <v>8.3699999999999992</v>
+      </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="Q20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1.9723618090452261E-13</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="X20" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>5.6689999999999996</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1">
+        <v>362</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.2563999999999999E-6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.3356E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.9847400000000002E-11</v>
+      </c>
+      <c r="F21" s="7">
+        <v>780</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1488</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>5.7949632675087601</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-4.8752904527172101</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4.5069999999999997</v>
+      </c>
+      <c r="L21" s="1">
+        <f>K21-J21</f>
+        <v>9.3822904527172106</v>
+      </c>
+      <c r="M21" s="1">
+        <f>L21+LOG(0.2)-11.91</f>
+        <v>-3.2266795516188083</v>
+      </c>
+      <c r="N21" s="1">
+        <f>I21</f>
+        <v>5.7949632675087601</v>
+      </c>
+      <c r="O21" s="1">
+        <v>999</v>
+      </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>12.83</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>2.8908</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>566.99</v>
+      </c>
+      <c r="C22" s="2">
+        <f>(0.000000074*(2.6*B22)^0.5*(273.15+17)/(1.0791*(AD22*100)^0.6))*(3600/100^2)</f>
+        <v>7.8946170041811414E-6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.9712889999999998E-10</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1440</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2880</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>-1.33</v>
+      </c>
+      <c r="J22" s="1">
+        <f>LOG(3.527E-30*0.00008205736)</f>
+        <v>-33.538476999866809</v>
+      </c>
+      <c r="K22" s="1">
+        <f>LOG(23140)</f>
+        <v>4.3643633546157306</v>
+      </c>
+      <c r="L22" s="1">
+        <f>K22-J22</f>
+        <v>37.902840354482542</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="6"/>
+        <v>25.293870350146523</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.33</v>
+      </c>
+      <c r="O22" s="1">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+      <c r="Q22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>16.437000000000001</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>3.7159</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1">
+        <v>285</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.6559999999999999E-6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.7243999999999999E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.19884E-11</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2904</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1464</v>
+      </c>
+      <c r="H23" s="1">
+        <v>144</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.5629056996641399</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-6.2877127546218397</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="L23" s="1">
+        <f>K23-J23</f>
+        <v>8.8877127546218393</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7212572497141796</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5629056996641399</v>
+      </c>
+      <c r="O23" s="1">
+        <v>999</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1.7605999999999999</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1">
+        <v>328</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.4508000000000002E-6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.5407999999999998E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.4763100000000002E-11</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5100</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1464</v>
+      </c>
+      <c r="H24" s="1">
+        <v>120</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.5154776628758202</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-6.0035631249827199</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="L24" s="1">
+        <f>K24-J24</f>
+        <v>9.2085631249827209</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.400406879353298</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5154776628758202</v>
+      </c>
+      <c r="O24" s="1">
+        <v>999</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>2.1833</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1">
+        <v>326</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.4435999999999998E-6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.494E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.08423E-11</v>
+      </c>
+      <c r="F25" s="7">
+        <v>678</v>
+      </c>
+      <c r="G25" s="7">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>156</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5.08948304776355</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-5.0352096385645098</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="L25" s="1">
+        <f>K25-J25</f>
+        <v>9.0662096385645086</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.5427603657715103</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="7"/>
+        <v>5.08948304776355</v>
+      </c>
+      <c r="O25" s="1">
+        <v>999</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>11.259</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>2.3714</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C471A4F3-D739-484F-A073-A6FA56DC0BCB}">
+  <dimension ref="A1:AF6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>128.1705</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.9899999999999997E-6</v>
+      </c>
+      <c r="D5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.1599999999999998E-11</v>
+      </c>
+      <c r="F5">
+        <v>900</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H5">
+        <f>0.1*F5</f>
+        <v>90</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.3472161432802645</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1.73</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="L5" s="1">
+        <f>K5-J5</f>
+        <v>4.6899999999999995</v>
+      </c>
+      <c r="M5" s="1">
+        <f>L5+LOG(0.2)-11.91</f>
+        <v>-7.9189700043360194</v>
+      </c>
+      <c r="N5" s="1">
+        <f>I5</f>
+        <v>3.3472161432802645</v>
+      </c>
+      <c r="O5" s="1">
+        <v>999</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.9060773480662983E-14</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1.7499999999999998E-5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2.616143551903963E-10</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>5.1609999999999996</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AD5">
+        <v>1.0853999999999999</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>119.37794</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.0499999999999999E-5</v>
+      </c>
+      <c r="D6">
+        <v>9.11E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.065E-13</v>
+      </c>
+      <c r="F6">
+        <v>900</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H6">
+        <f>0.1*F6</f>
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.82</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L6" s="1">
+        <f>K6-J6</f>
+        <v>2.42</v>
+      </c>
+      <c r="M6" s="1">
+        <f>L6+LOG(0.2)-11.91</f>
+        <v>-10.188970004336019</v>
+      </c>
+      <c r="N6" s="1">
+        <f>I6</f>
+        <v>1.97</v>
+      </c>
+      <c r="O6" s="1">
+        <v>999</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AC6">
+        <v>0.02</v>
+      </c>
+      <c r="AD6">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>